--- a/RDT/RDT sensor configuration for Ethos.xlsx
+++ b/RDT/RDT sensor configuration for Ethos.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\FrSky\Ethos\X20\scripts\RDT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liort\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D2479BD-D5F9-450B-8263-E3780BF2936A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="53">
   <si>
     <t>RPM</t>
   </si>
@@ -84,12 +78,6 @@
     <t>Xicoy V6-V10</t>
   </si>
   <si>
-    <t>Tmp1</t>
-  </si>
-  <si>
-    <t>Tmp2</t>
-  </si>
-  <si>
     <t>ADC3</t>
   </si>
   <si>
@@ -142,15 +130,6 @@
   </si>
   <si>
     <t>VFAS</t>
-  </si>
-  <si>
-    <t>FF01</t>
-  </si>
-  <si>
-    <t>FF02</t>
-  </si>
-  <si>
-    <t>FF03</t>
   </si>
   <si>
     <t>English Sensor Name</t>
@@ -200,17 +179,23 @@
   </si>
   <si>
     <t>0xA30</t>
+  </si>
+  <si>
+    <t>Temp1</t>
+  </si>
+  <si>
+    <t>Temp2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -218,14 +203,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -694,24 +679,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="16.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="13.09765625" style="4"/>
+    <col min="7" max="7" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="13.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -732,13 +717,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>7</v>
@@ -776,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -797,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>0</v>
@@ -811,37 +796,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -849,37 +834,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -887,37 +872,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -925,73 +910,73 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J8" s="2" t="str">
         <f t="shared" ref="J8:L10" si="0">"---"</f>
         <v>---</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L8" s="2" t="str">
         <f>"---"</f>
@@ -1000,32 +985,32 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="str">
         <f>"---"</f>
         <v>---</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1036,18 +1021,18 @@
         <v>---</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>"---"</f>
@@ -1062,14 +1047,14 @@
         <v>---</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="str">
         <f>"---"</f>
         <v>---</v>
       </c>
       <c r="I10" s="2" t="str">
-        <f t="shared" ref="I10:L10" si="1">"---"</f>
+        <f t="shared" ref="I10" si="1">"---"</f>
         <v>---</v>
       </c>
       <c r="J10" s="2" t="str">
@@ -1087,13 +1072,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="C11" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" ref="D11:G12" si="2">"---"</f>
@@ -1104,20 +1089,20 @@
         <v>---</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" si="2"/>
         <v>---</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" ref="K11:L12" si="3">"---"</f>
@@ -1128,15 +1113,15 @@
         <v>---</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1147,20 +1132,20 @@
         <v>---</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>---</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K12" s="2" t="str">
         <f t="shared" si="3"/>
@@ -1173,116 +1158,116 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
